--- a/static/Excel.xlsx
+++ b/static/Excel.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>RATE THIS
 PROMOTION</t>
@@ -22,28 +22,28 @@
 Сайт : https://rate-this.ru/</t>
   </si>
   <si>
-    <t>Отчет по выкупам за Месяц</t>
+    <t>Отчет по Отзывам за Месяц</t>
   </si>
   <si>
     <t>Артикул</t>
   </si>
   <si>
-    <t>Дата покупки</t>
+    <t>Дата Получения</t>
   </si>
   <si>
     <t>Статус</t>
   </si>
   <si>
-    <t>Цена</t>
+    <t>Коментарий</t>
   </si>
   <si>
     <t>БарКод</t>
   </si>
   <si>
-    <t>Наименование</t>
-  </si>
-  <si>
-    <t>Колличество</t>
+    <t>Оценка</t>
+  </si>
+  <si>
+    <t>Согласованно</t>
   </si>
   <si>
     <t>Бренд</t>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>0</t>
-  </si>
-  <si>
-    <t>Общая цена</t>
   </si>
 </sst>
 </file>
@@ -144,10 +141,10 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
@@ -189,15 +186,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="5:8">
-      <c r="E4" s="3" t="s">
+    <row r="4" spans="7:8">
+      <c r="G4" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>12</v>
@@ -205,8 +196,8 @@
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
